--- a/SchedulingData/dynamic9/pso/scheduling1_20.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_20.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.28</v>
+        <v>54.88</v>
       </c>
       <c r="E2" t="n">
-        <v>26.172</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.18</v>
+        <v>69.52</v>
       </c>
       <c r="E3" t="n">
-        <v>27.032</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.6</v>
+        <v>57.52</v>
       </c>
       <c r="E4" t="n">
-        <v>25.84</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45.28</v>
+        <v>69.52</v>
       </c>
       <c r="D5" t="n">
-        <v>98.08</v>
+        <v>126.62</v>
       </c>
       <c r="E5" t="n">
-        <v>22.032</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.3</v>
+        <v>55.24</v>
       </c>
       <c r="E6" t="n">
-        <v>26.36</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48.3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>116.72</v>
+        <v>45.28</v>
       </c>
       <c r="E7" t="n">
-        <v>21.628</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.6</v>
+        <v>45.28</v>
       </c>
       <c r="D8" t="n">
-        <v>103.24</v>
+        <v>127.78</v>
       </c>
       <c r="E8" t="n">
-        <v>22.496</v>
+        <v>22.032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>55.24</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>126.62</v>
       </c>
       <c r="E9" t="n">
-        <v>25.58</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="10">
@@ -618,93 +618,93 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61.18</v>
+        <v>57.52</v>
       </c>
       <c r="D10" t="n">
-        <v>125.4</v>
+        <v>118.52</v>
       </c>
       <c r="E10" t="n">
-        <v>23.24</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>126.62</v>
       </c>
       <c r="D11" t="n">
-        <v>114.28</v>
+        <v>180.26</v>
       </c>
       <c r="E11" t="n">
-        <v>22.852</v>
+        <v>18.864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>98.08</v>
+        <v>118.52</v>
       </c>
       <c r="D12" t="n">
-        <v>154.1</v>
+        <v>180.02</v>
       </c>
       <c r="E12" t="n">
-        <v>19.04</v>
+        <v>18.908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>114.28</v>
+        <v>54.88</v>
       </c>
       <c r="D13" t="n">
-        <v>156.44</v>
+        <v>118.4</v>
       </c>
       <c r="E13" t="n">
-        <v>20.256</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>195.7</v>
+        <v>58.6</v>
       </c>
       <c r="E14" t="n">
-        <v>18.32</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="15">
@@ -713,60 +713,60 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154.1</v>
+        <v>127.78</v>
       </c>
       <c r="D15" t="n">
-        <v>225.5</v>
+        <v>164.1</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>164.1</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7</v>
+        <v>231.6</v>
       </c>
       <c r="E16" t="n">
-        <v>25.92</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>57.7</v>
+        <v>118.4</v>
       </c>
       <c r="D17" t="n">
-        <v>143.4</v>
+        <v>188.7</v>
       </c>
       <c r="E17" t="n">
-        <v>20.46</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,165 +774,165 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>156.44</v>
+        <v>180.02</v>
       </c>
       <c r="D18" t="n">
-        <v>238.06</v>
+        <v>246.34</v>
       </c>
       <c r="E18" t="n">
-        <v>16.224</v>
+        <v>14.876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143.4</v>
+        <v>231.6</v>
       </c>
       <c r="D19" t="n">
-        <v>191.72</v>
+        <v>282.64</v>
       </c>
       <c r="E19" t="n">
-        <v>17.248</v>
+        <v>11.416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>195.7</v>
+        <v>180.26</v>
       </c>
       <c r="D20" t="n">
-        <v>249.34</v>
+        <v>222.52</v>
       </c>
       <c r="E20" t="n">
-        <v>14.576</v>
+        <v>16.268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>225.5</v>
+        <v>188.7</v>
       </c>
       <c r="D21" t="n">
-        <v>277.54</v>
+        <v>271.2</v>
       </c>
       <c r="E21" t="n">
-        <v>12.416</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>191.72</v>
+        <v>282.64</v>
       </c>
       <c r="D22" t="n">
-        <v>243.5</v>
+        <v>344.74</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2</v>
+        <v>7.336</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>103.24</v>
+        <v>58.6</v>
       </c>
       <c r="D23" t="n">
-        <v>152.72</v>
+        <v>124</v>
       </c>
       <c r="E23" t="n">
-        <v>18.688</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>116.72</v>
+        <v>271.2</v>
       </c>
       <c r="D24" t="n">
-        <v>173.82</v>
+        <v>339.48</v>
       </c>
       <c r="E24" t="n">
-        <v>18.028</v>
+        <v>10.152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>173.82</v>
+        <v>124</v>
       </c>
       <c r="D25" t="n">
-        <v>229.5</v>
+        <v>200.94</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08</v>
+        <v>17.836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>229.5</v>
+        <v>200.94</v>
       </c>
       <c r="D26" t="n">
-        <v>285.44</v>
+        <v>293.34</v>
       </c>
       <c r="E26" t="n">
-        <v>11.596</v>
+        <v>14.196</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>243.5</v>
+        <v>222.52</v>
       </c>
       <c r="D27" t="n">
-        <v>283.7</v>
+        <v>271.4</v>
       </c>
       <c r="E27" t="n">
-        <v>9.82</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>152.72</v>
+        <v>126.62</v>
       </c>
       <c r="D28" t="n">
-        <v>209.84</v>
+        <v>175.04</v>
       </c>
       <c r="E28" t="n">
-        <v>16.096</v>
+        <v>19.396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>209.84</v>
+        <v>175.04</v>
       </c>
       <c r="D29" t="n">
-        <v>272.54</v>
+        <v>215.82</v>
       </c>
       <c r="E29" t="n">
-        <v>11.956</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>238.06</v>
+        <v>215.82</v>
       </c>
       <c r="D30" t="n">
-        <v>307.04</v>
+        <v>265.82</v>
       </c>
       <c r="E30" t="n">
-        <v>13.936</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>249.34</v>
+        <v>271.4</v>
       </c>
       <c r="D31" t="n">
-        <v>317.04</v>
+        <v>351.98</v>
       </c>
       <c r="E31" t="n">
-        <v>10.916</v>
+        <v>11.012</v>
       </c>
     </row>
   </sheetData>
